--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/61.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/61.xlsx
@@ -479,13 +479,13 @@
         <v>-8.997635557753101</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.12686840789585</v>
+        <v>-16.73917251691514</v>
       </c>
       <c r="F2" t="n">
-        <v>3.329369540603342</v>
+        <v>3.103248084001659</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.75233426902758</v>
+        <v>-10.33120499552526</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.115236432712203</v>
       </c>
       <c r="E3" t="n">
-        <v>-16.69525456822965</v>
+        <v>-17.27966689307319</v>
       </c>
       <c r="F3" t="n">
-        <v>3.258214934662262</v>
+        <v>3.016918000745675</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.62924863214613</v>
+        <v>-10.23750717892083</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.144189616003036</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.24547806805286</v>
+        <v>-17.80771874675494</v>
       </c>
       <c r="F4" t="n">
-        <v>3.307100114324544</v>
+        <v>3.095415895000861</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.55351791577761</v>
+        <v>-10.2840309682664</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.074657853342813</v>
       </c>
       <c r="E5" t="n">
-        <v>-17.68895010293698</v>
+        <v>-18.21477256948742</v>
       </c>
       <c r="F5" t="n">
-        <v>3.645888734174282</v>
+        <v>3.465963503458079</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.22745049179559</v>
+        <v>-9.960344490628557</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.905454163821219</v>
       </c>
       <c r="E6" t="n">
-        <v>-18.40923281761896</v>
+        <v>-18.89835350961946</v>
       </c>
       <c r="F6" t="n">
-        <v>3.720064746359116</v>
+        <v>3.567444618994632</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.844352802711001</v>
+        <v>-9.657685631525322</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.637298379763788</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.00225957256201</v>
+        <v>-19.51756578534171</v>
       </c>
       <c r="F7" t="n">
-        <v>3.747003174195818</v>
+        <v>3.566603709813523</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.575437869003212</v>
+        <v>-9.378161552916326</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.273905800426807</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.58504874712574</v>
+        <v>-20.06695326499068</v>
       </c>
       <c r="F8" t="n">
-        <v>3.983098204806007</v>
+        <v>3.833812380124759</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.323189559704733</v>
+        <v>-9.184708440199369</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.821744618698037</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.10467684197579</v>
+        <v>-20.54137271334237</v>
       </c>
       <c r="F9" t="n">
-        <v>4.244356953760208</v>
+        <v>4.154492118539444</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.401477226664642</v>
+        <v>-9.363973654988538</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.290963919920213</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.71818364668434</v>
+        <v>-21.18314286674856</v>
       </c>
       <c r="F10" t="n">
-        <v>4.567750090986031</v>
+        <v>4.475895429970433</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.918492238282115</v>
+        <v>-8.906460392382638</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.694749988184589</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.67117331021774</v>
+        <v>-22.16304162407745</v>
       </c>
       <c r="F11" t="n">
-        <v>4.697328328986745</v>
+        <v>4.599215739181496</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.618028543262124</v>
+        <v>-8.698946495916433</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.049232619967393</v>
       </c>
       <c r="E12" t="n">
-        <v>-22.47469136680895</v>
+        <v>-22.97715415854926</v>
       </c>
       <c r="F12" t="n">
-        <v>5.041529079438158</v>
+        <v>4.967739298795811</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.106232637412866</v>
+        <v>-8.245530221065007</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.370699319534223</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.05424401882678</v>
+        <v>-23.6132726200173</v>
       </c>
       <c r="F13" t="n">
-        <v>5.824879982703339</v>
+        <v>5.780072234768064</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.719609974377232</v>
+        <v>-7.944171837788369</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.681596306057149</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.20442199632346</v>
+        <v>-24.79367443796525</v>
       </c>
       <c r="F14" t="n">
-        <v>6.129201104141328</v>
+        <v>6.097554562691787</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.883824472464387</v>
+        <v>-7.105027588157954</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.003173148123158</v>
       </c>
       <c r="E15" t="n">
-        <v>-24.78465910930266</v>
+        <v>-25.33368969145034</v>
       </c>
       <c r="F15" t="n">
-        <v>6.539476782399096</v>
+        <v>6.538909657602534</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.273119068690574</v>
+        <v>-6.618527403838115</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.357147776573964</v>
       </c>
       <c r="E16" t="n">
-        <v>-25.67947448012663</v>
+        <v>-26.24358275945188</v>
       </c>
       <c r="F16" t="n">
-        <v>6.713804100252682</v>
+        <v>6.757286927327024</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.044562886669167</v>
+        <v>-6.445495672804261</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.764806920400298</v>
       </c>
       <c r="E17" t="n">
-        <v>-26.72943026135498</v>
+        <v>-27.3119554295479</v>
       </c>
       <c r="F17" t="n">
-        <v>7.108645183831601</v>
+        <v>7.200050056215442</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.619571297741984</v>
+        <v>-6.112290298796539</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.245136911440341</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.40935422435058</v>
+        <v>-27.92894076264227</v>
       </c>
       <c r="F18" t="n">
-        <v>7.414672568666142</v>
+        <v>7.524293880636109</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.494642505271707</v>
+        <v>-6.049285667302607</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.814865639052701</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.40069814675493</v>
+        <v>-28.98439423209247</v>
       </c>
       <c r="F19" t="n">
-        <v>7.677622913996295</v>
+        <v>7.79429906287522</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.217504262013766</v>
+        <v>-5.738207938374543</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.486890918383356</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.07848561374968</v>
+        <v>-29.67376131185151</v>
       </c>
       <c r="F20" t="n">
-        <v>7.993056748042781</v>
+        <v>8.115482368997197</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.097909376035292</v>
+        <v>-5.635436125025123</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.270061485343032</v>
       </c>
       <c r="E21" t="n">
-        <v>-29.81098106758521</v>
+        <v>-30.36263704642043</v>
       </c>
       <c r="F21" t="n">
-        <v>8.25447683422359</v>
+        <v>8.402119952597555</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.059770233466489</v>
+        <v>-5.59848501112498</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.16882890395818</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.07221292700164</v>
+        <v>-30.66216205212197</v>
       </c>
       <c r="F22" t="n">
-        <v>8.276355139953035</v>
+        <v>8.417994557894428</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.149595956632317</v>
+        <v>-5.653481449370906</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.183684511592437</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.51536717643942</v>
+        <v>-31.01262073136304</v>
       </c>
       <c r="F23" t="n">
-        <v>8.364611491914584</v>
+        <v>8.532255537381097</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.013818457924355</v>
+        <v>-5.464413775813571</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.310576564069981</v>
       </c>
       <c r="E24" t="n">
-        <v>-30.61384888626312</v>
+        <v>-31.13014267842994</v>
       </c>
       <c r="F24" t="n">
-        <v>8.774852947124284</v>
+        <v>8.963392607939991</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.074241693792557</v>
+        <v>-5.509920651730816</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.540687433479667</v>
       </c>
       <c r="E25" t="n">
-        <v>-30.66880621245411</v>
+        <v>-31.18684538007242</v>
       </c>
       <c r="F25" t="n">
-        <v>8.659672834346633</v>
+        <v>8.87290686884713</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.013329557237664</v>
+        <v>-5.426567973656783</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.861605518603164</v>
       </c>
       <c r="E26" t="n">
-        <v>-30.64900817914654</v>
+        <v>-31.10761169028376</v>
       </c>
       <c r="F26" t="n">
-        <v>8.283546869054266</v>
+        <v>8.476183517624449</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.013129107956121</v>
+        <v>-5.419752698084303</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.258295219246169</v>
       </c>
       <c r="E27" t="n">
-        <v>-30.83010188250393</v>
+        <v>-31.2751995121713</v>
       </c>
       <c r="F27" t="n">
-        <v>8.39245927502853</v>
+        <v>8.546966559043645</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.737310896552247</v>
+        <v>-5.079790716586506</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.712801903365779</v>
       </c>
       <c r="E28" t="n">
-        <v>-30.56484148142916</v>
+        <v>-30.96217351400677</v>
       </c>
       <c r="F28" t="n">
-        <v>8.281752603534109</v>
+        <v>8.45078023794396</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.984929316347755</v>
+        <v>-5.312976788110881</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.205702402129651</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.48453221012979</v>
+        <v>-30.86274333685089</v>
       </c>
       <c r="F29" t="n">
-        <v>7.933753094747103</v>
+        <v>8.063267775658547</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.699704655731937</v>
+        <v>-5.000227018834332</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.717301325174593</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.6502548758976</v>
+        <v>-31.03710243324911</v>
       </c>
       <c r="F30" t="n">
-        <v>7.674635730800611</v>
+        <v>7.847760352964936</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.891686177381953</v>
+        <v>-5.121899732731244</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.227607517943295</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.37169882064825</v>
+        <v>-30.66291984818634</v>
       </c>
       <c r="F31" t="n">
-        <v>7.595722270961736</v>
+        <v>7.734203390467102</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.857996031062042</v>
+        <v>-5.092179459987269</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.721679144817658</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.45233809991115</v>
+        <v>-30.72304485463566</v>
       </c>
       <c r="F32" t="n">
-        <v>7.404117202840473</v>
+        <v>7.500288856919556</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.035799432798005</v>
+        <v>-5.213373051211223</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.186005639633048</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.06438073800085</v>
+        <v>-30.2984346082441</v>
       </c>
       <c r="F33" t="n">
-        <v>7.356581389073458</v>
+        <v>7.458522071255502</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.797587462214441</v>
+        <v>-4.906103858632485</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.610226384739921</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.84142002433862</v>
+        <v>-30.03612472281351</v>
       </c>
       <c r="F34" t="n">
-        <v>7.358365876579883</v>
+        <v>7.390530652757316</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.794580722991288</v>
+        <v>-4.870409219497139</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.98757010433722</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.51898757696215</v>
+        <v>-29.62258563247208</v>
       </c>
       <c r="F35" t="n">
-        <v>7.41003290114944</v>
+        <v>7.447844480258159</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.857829804828567</v>
+        <v>-4.965974636724725</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.315191854529408</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.20393264094785</v>
+        <v>-29.34637385601542</v>
       </c>
       <c r="F36" t="n">
-        <v>7.444901298124277</v>
+        <v>7.425193711443742</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.823122745080338</v>
+        <v>-4.918741941383461</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.594182843767871</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.07965408639087</v>
+        <v>-29.15831820687954</v>
       </c>
       <c r="F37" t="n">
-        <v>7.426699525558752</v>
+        <v>7.428102670529557</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.787090764471174</v>
+        <v>-4.798403926361216</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.828764428123272</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.50955677365365</v>
+        <v>-28.55720747908204</v>
       </c>
       <c r="F38" t="n">
-        <v>7.185519927806971</v>
+        <v>7.138575683870854</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.733810367635535</v>
+        <v>-4.696776140618654</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.02652650115543</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.03474131574574</v>
+        <v>-28.04287662317229</v>
       </c>
       <c r="F39" t="n">
-        <v>7.220153652452197</v>
+        <v>7.128739002054621</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.75830429203878</v>
+        <v>-4.677298337260866</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.196749111740853</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.62677324872915</v>
+        <v>-27.64174583225908</v>
       </c>
       <c r="F40" t="n">
-        <v>7.19482370787471</v>
+        <v>7.11946944503495</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.581024014037577</v>
+        <v>-4.473157855532832</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.349154790645496</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.44787715395844</v>
+        <v>-27.47574693760329</v>
       </c>
       <c r="F41" t="n">
-        <v>7.025942743670868</v>
+        <v>6.928265275476774</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.822614288366179</v>
+        <v>-4.688831504459918</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.493098724743359</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.86790404735005</v>
+        <v>-26.90051127864894</v>
       </c>
       <c r="F42" t="n">
-        <v>6.953551218992458</v>
+        <v>6.785804504381739</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.624453062036382</v>
+        <v>-4.482334521422032</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.636007970785346</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.45869417258927</v>
+        <v>-26.500013614125</v>
       </c>
       <c r="F43" t="n">
-        <v>6.964321701120271</v>
+        <v>6.797401228670061</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.662533536522782</v>
+        <v>-4.460363324562116</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.784827914060211</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.83929611460608</v>
+        <v>-25.84442468280947</v>
       </c>
       <c r="F44" t="n">
-        <v>7.044897423293897</v>
+        <v>6.831238045195979</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.698594851173147</v>
+        <v>-4.504149270062205</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.946492776712153</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.33800179550696</v>
+        <v>-25.38822656305078</v>
       </c>
       <c r="F45" t="n">
-        <v>7.024451596576458</v>
+        <v>6.781477733304519</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.699949106075283</v>
+        <v>-4.463971411629899</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.12500874090488</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.78785163078675</v>
+        <v>-24.83691770370311</v>
       </c>
       <c r="F46" t="n">
-        <v>6.923552272857068</v>
+        <v>6.703864749292245</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.669309700040326</v>
+        <v>-4.430569716715135</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.322100209940825</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.63552973284115</v>
+        <v>-24.76217456672171</v>
       </c>
       <c r="F47" t="n">
-        <v>7.10530110313463</v>
+        <v>6.880093890817061</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.74394527887065</v>
+        <v>-4.519794092036333</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.53719462048335</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.24497141927765</v>
+        <v>-24.35641633080898</v>
       </c>
       <c r="F48" t="n">
-        <v>7.024138700136976</v>
+        <v>6.80507208044425</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.823318305355015</v>
+        <v>-4.637531155405379</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.767261296066044</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.52989549690894</v>
+        <v>-23.64784767658012</v>
       </c>
       <c r="F49" t="n">
-        <v>7.185867047294522</v>
+        <v>6.980597204980231</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.963691470517876</v>
+        <v>-4.758714968615601</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.007038519041608</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.23167096703399</v>
+        <v>-23.43367495276118</v>
       </c>
       <c r="F50" t="n">
-        <v>7.074945259497956</v>
+        <v>6.868076711938183</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.123801556402474</v>
+        <v>-4.956685523677587</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.248626177102169</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.73746570789189</v>
+        <v>-22.99567860556801</v>
       </c>
       <c r="F51" t="n">
-        <v>7.080988071985463</v>
+        <v>6.879135645471146</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.923293606776558</v>
+        <v>-4.70895465672414</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.485855508080903</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.13335557438155</v>
+        <v>-22.36690343241407</v>
       </c>
       <c r="F52" t="n">
-        <v>7.017240311447758</v>
+        <v>6.812459369820159</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.117191619118405</v>
+        <v>-4.888884776447211</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.710138810410932</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.69906020538663</v>
+        <v>-21.95146985191171</v>
       </c>
       <c r="F53" t="n">
-        <v>7.333104378098533</v>
+        <v>7.15820015743465</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.10290594105328</v>
+        <v>-4.918228595662434</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.912766189203275</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.03791491776685</v>
+        <v>-21.33269758680749</v>
       </c>
       <c r="F54" t="n">
-        <v>7.304542799982015</v>
+        <v>7.173561417010498</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.988478735333135</v>
+        <v>-4.808885957083882</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.08566196903444</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.79616330621164</v>
+        <v>-21.09269623971063</v>
       </c>
       <c r="F55" t="n">
-        <v>7.227800059192051</v>
+        <v>7.091802555175079</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.278435954596127</v>
+        <v>-5.180259807701608</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.21965906471729</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.25500402511969</v>
+        <v>-20.56007805361518</v>
       </c>
       <c r="F56" t="n">
-        <v>7.113426632547443</v>
+        <v>6.990605002036806</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.470456588301079</v>
+        <v>-5.354548013500259</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.31114131163868</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.78563980986839</v>
+        <v>-20.14318754906648</v>
       </c>
       <c r="F57" t="n">
-        <v>7.167719053804534</v>
+        <v>7.036194991070788</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.593356442921587</v>
+        <v>-5.508312168471601</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.35716000044505</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.519281826752</v>
+        <v>-19.86608841786347</v>
       </c>
       <c r="F58" t="n">
-        <v>6.873092832983638</v>
+        <v>6.774378895333759</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.949926380746295</v>
+        <v>-5.904404837808449</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.35635980224304</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.93494283701146</v>
+        <v>-19.35291870108462</v>
       </c>
       <c r="F59" t="n">
-        <v>7.106850918311443</v>
+        <v>6.952030737856847</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.995369699574269</v>
+        <v>-5.875422805101377</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.30917598816853</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.43523744514408</v>
+        <v>-18.81773378638404</v>
       </c>
       <c r="F60" t="n">
-        <v>6.959124686820741</v>
+        <v>6.777190074282235</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.35312277706077</v>
+        <v>-6.246219752908808</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.2182717812134</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.24495729788375</v>
+        <v>-18.59032163196948</v>
       </c>
       <c r="F61" t="n">
-        <v>6.745039965125402</v>
+        <v>6.582446263752412</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.409796144662048</v>
+        <v>-6.271437250328355</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.08801267921405</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.96580478379664</v>
+        <v>-18.35154742559623</v>
       </c>
       <c r="F62" t="n">
-        <v>6.724946146902382</v>
+        <v>6.549997925176697</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.461981403959498</v>
+        <v>-6.353235224218709</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.923186823449898</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.300723845649</v>
+        <v>-17.69447468069659</v>
       </c>
       <c r="F63" t="n">
-        <v>6.705126113063908</v>
+        <v>6.554999379201552</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.383713293027057</v>
+        <v>-6.277954296481953</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.731432351770918</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.31545931234588</v>
+        <v>-17.74024556298465</v>
       </c>
       <c r="F64" t="n">
-        <v>6.507038221837115</v>
+        <v>6.336030539646164</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.707316657548157</v>
+        <v>-6.617842942876747</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.522252303642066</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.9463832949556</v>
+        <v>-17.37410294971452</v>
       </c>
       <c r="F65" t="n">
-        <v>6.60171872882179</v>
+        <v>6.440938848996425</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.58587372697399</v>
+        <v>-6.472116315194613</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.304405152956438</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.73971519667737</v>
+        <v>-17.20844384103598</v>
       </c>
       <c r="F66" t="n">
-        <v>6.594360773487083</v>
+        <v>6.458074818064962</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.589134694554223</v>
+        <v>-6.553792063913294</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.086710019949967</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.56995421123748</v>
+        <v>-17.05597527288437</v>
       </c>
       <c r="F67" t="n">
-        <v>6.278227811458629</v>
+        <v>6.09878659242225</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.581424730725097</v>
+        <v>-6.567021716495166</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.876981236844216</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.19958749603434</v>
+        <v>-16.7324696885006</v>
       </c>
       <c r="F68" t="n">
-        <v>6.278594486973647</v>
+        <v>6.080081252149433</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.737672501184832</v>
+        <v>-6.69778798316454</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.68109911274783</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.1292542432469</v>
+        <v>-16.76170106055789</v>
       </c>
       <c r="F69" t="n">
-        <v>6.320551943905512</v>
+        <v>6.165413978004566</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.489555402688898</v>
+        <v>-6.410226377266337</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.505982863562952</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.80152944593699</v>
+        <v>-16.41227885077261</v>
       </c>
       <c r="F70" t="n">
-        <v>6.289179186840518</v>
+        <v>6.115252767550019</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.3130133647246</v>
+        <v>-6.256912010926751</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.355261522750512</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.98183601918882</v>
+        <v>-16.5912605031635</v>
       </c>
       <c r="F71" t="n">
-        <v>6.078096315361465</v>
+        <v>5.908638448347326</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.039385428397104</v>
+        <v>-5.997628420746784</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.230558717438203</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.96269066829798</v>
+        <v>-16.56600878269589</v>
       </c>
       <c r="F72" t="n">
-        <v>6.112084691100258</v>
+        <v>5.929196722222704</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.989625116505644</v>
+        <v>-5.973638064050832</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.131460371338394</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.77952891503588</v>
+        <v>-16.40793741267479</v>
       </c>
       <c r="F73" t="n">
-        <v>6.066876044601896</v>
+        <v>5.904482792510449</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.10664838487212</v>
+        <v>-6.077876579460326</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.055862302494882</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.90572884929155</v>
+        <v>-16.5453038386145</v>
       </c>
       <c r="F74" t="n">
-        <v>5.947325159685224</v>
+        <v>5.777173053695984</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.683108830984411</v>
+        <v>-5.654899261362312</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.000451716871275</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.07979216077432</v>
+        <v>-16.71340256171964</v>
       </c>
       <c r="F75" t="n">
-        <v>5.848239657513459</v>
+        <v>5.72130148322088</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.679251404566415</v>
+        <v>-5.647795534384684</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.959286848133879</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.16815118188008</v>
+        <v>-16.81079646751545</v>
       </c>
       <c r="F76" t="n">
-        <v>5.724953571350465</v>
+        <v>5.592305037037328</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.507515260352294</v>
+        <v>-5.480733280735334</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.930388376484417</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.34565635419716</v>
+        <v>-16.98164281247979</v>
       </c>
       <c r="F77" t="n">
-        <v>5.703857506719727</v>
+        <v>5.59686648044416</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.296060824351355</v>
+        <v>-5.24358222464189</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.910266138638554</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.67496030072508</v>
+        <v>-17.32831740040587</v>
       </c>
       <c r="F78" t="n">
-        <v>5.48777318121582</v>
+        <v>5.364213310668279</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.979654077938354</v>
+        <v>-4.879390325111662</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.89579100964756</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.88883479512515</v>
+        <v>-17.56636803376282</v>
       </c>
       <c r="F79" t="n">
-        <v>5.602454615293044</v>
+        <v>5.498450772213163</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.686827011644483</v>
+        <v>-4.543310215066194</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.884912335260416</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.31156277387295</v>
+        <v>-17.94757856619678</v>
       </c>
       <c r="F80" t="n">
-        <v>5.409368178091105</v>
+        <v>5.318989997149315</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.388294474336922</v>
+        <v>-4.240842027230768</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.875292893917971</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.99436636191315</v>
+        <v>-18.69960560246563</v>
       </c>
       <c r="F81" t="n">
-        <v>5.392481548372781</v>
+        <v>5.294955639391562</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.177852062757435</v>
+        <v>-3.989146175708252</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.867353760808611</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.73356464416323</v>
+        <v>-19.386848408741</v>
       </c>
       <c r="F82" t="n">
-        <v>5.175086969028541</v>
+        <v>5.116091323165478</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.926777115107018</v>
+        <v>-3.726186052364365</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.86307144696234</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.39988739005507</v>
+        <v>-20.028662563209</v>
       </c>
       <c r="F83" t="n">
-        <v>4.898603852690766</v>
+        <v>4.863847902873868</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.821218567843458</v>
+        <v>-3.584659081580911</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.864346382108189</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.5400233474471</v>
+        <v>-21.18079614345244</v>
       </c>
       <c r="F84" t="n">
-        <v>4.688083217001409</v>
+        <v>4.606563916502469</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.426641490635353</v>
+        <v>-3.135921586301122</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.873426913761956</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.40439976151766</v>
+        <v>-22.01180997466318</v>
       </c>
       <c r="F85" t="n">
-        <v>4.865163045721069</v>
+        <v>4.805355824718098</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.400015959238134</v>
+        <v>-3.103844812247293</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.892468031422423</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.23667495650006</v>
+        <v>-22.8427358037503</v>
       </c>
       <c r="F86" t="n">
-        <v>4.541813909557048</v>
+        <v>4.468097464017704</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.16259600776701</v>
+        <v>-2.807610108167183</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.923092421583969</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.01071719069064</v>
+        <v>-23.5850630503952</v>
       </c>
       <c r="F87" t="n">
-        <v>4.365325650668285</v>
+        <v>4.31796584114848</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.065001652689654</v>
+        <v>-2.731449159194382</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.965832741838671</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.32984457848729</v>
+        <v>-24.85820932860852</v>
       </c>
       <c r="F88" t="n">
-        <v>4.329239890983586</v>
+        <v>4.281185842488679</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.084318118820835</v>
+        <v>-2.637076659642323</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.020234330872455</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.57431194241929</v>
+        <v>-26.10451007011562</v>
       </c>
       <c r="F89" t="n">
-        <v>3.761792419968235</v>
+        <v>3.71836337196943</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.026065602001543</v>
+        <v>-2.554765340030942</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.087337400362482</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.00866833306227</v>
+        <v>-27.50126999795201</v>
       </c>
       <c r="F90" t="n">
-        <v>3.845604664687758</v>
+        <v>3.811650511997034</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.014331985520947</v>
+        <v>-2.55411999112451</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.165743568406434</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.68404298423042</v>
+        <v>-29.19023364370675</v>
       </c>
       <c r="F91" t="n">
-        <v>3.490990329609816</v>
+        <v>3.427697246710735</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.259843243356816</v>
+        <v>-2.746565968426883</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.25349581464936</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.4040689351141</v>
+        <v>-30.88354850557305</v>
       </c>
       <c r="F92" t="n">
-        <v>3.249781397816834</v>
+        <v>3.188971930406145</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.443039219666986</v>
+        <v>-2.918287445620404</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.348369380547155</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.94418921130904</v>
+        <v>-32.43171608707094</v>
       </c>
       <c r="F93" t="n">
-        <v>2.909584743989424</v>
+        <v>2.847724140102349</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.841503057334287</v>
+        <v>-3.271703974015951</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.445649057319496</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.95327524869564</v>
+        <v>-34.40046537330205</v>
       </c>
       <c r="F94" t="n">
-        <v>2.427709560165686</v>
+        <v>2.340670570913999</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.78787065200423</v>
+        <v>-3.143924890542262</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.545468438354192</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.05515219191285</v>
+        <v>-36.60736551753089</v>
       </c>
       <c r="F95" t="n">
-        <v>1.912965583175678</v>
+        <v>1.842260765866355</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.016935290739797</v>
+        <v>-3.276597869889733</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.64679404731462</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.93333995944466</v>
+        <v>-38.41338665470018</v>
       </c>
       <c r="F96" t="n">
-        <v>1.666818754447112</v>
+        <v>1.576020118914767</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.360720475607522</v>
+        <v>-3.590990345473565</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.748497311189784</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.05922437088186</v>
+        <v>-40.52297111724307</v>
       </c>
       <c r="F97" t="n">
-        <v>1.241054702434957</v>
+        <v>1.108811955691774</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.659766358636109</v>
+        <v>-3.840882153462189</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.851463325968048</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.90824187894222</v>
+        <v>-42.29232959191736</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8553511726903024</v>
+        <v>0.7353113870869397</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.018551016571529</v>
+        <v>-4.16587888494036</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.954623302920126</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.45384019639376</v>
+        <v>-44.80218438016489</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5472312929167216</v>
+        <v>0.3961072016535136</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.236405162561259</v>
+        <v>-4.346009453944975</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.06061601886891</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.98613430390871</v>
+        <v>-47.32341588739173</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.1918203191273435</v>
+        <v>-0.3613515212444862</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.543469016851586</v>
+        <v>-4.679742840694323</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.164724363749858</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.90549362051853</v>
+        <v>-49.19887803359524</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1773390807875414</v>
+        <v>-0.3484445431158308</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.977177705022478</v>
+        <v>-5.092653693653359</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.273034993312939</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.17766933993099</v>
+        <v>-51.38210193981932</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.637282179806299</v>
+        <v>-0.7973140415810259</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.343990112233373</v>
+        <v>-5.426587529684251</v>
       </c>
     </row>
   </sheetData>
